--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rara/Desktop/Baseline results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rara/oxtractor-rara/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D9AF59-03A3-9644-9D8A-0735ABC2E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A74C97-38EF-164F-A642-E1414D447025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="29360" windowHeight="16980" activeTab="1" xr2:uid="{8C6AF34D-4A44-0842-B632-AC6C67E234ED}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="29360" windowHeight="16980" xr2:uid="{8C6AF34D-4A44-0842-B632-AC6C67E234ED}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>≈26.67%</t>
-  </si>
-  <si>
     <t>Extra Task SR</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>≈ 60.00%</t>
+  </si>
+  <si>
+    <t>≈28.57%</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11108BF0-C445-F746-8F7F-09B0DF3D7A86}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,7 +894,7 @@
         <v>5.7142857142857144</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA267A2C-F6CE-A640-BF3F-05F7B3FE9579}">
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1254,7 +1254,7 @@
         <v>5.8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
